--- a/Spectral_data/intact/2511_RIO_out.xlsx
+++ b/Spectral_data/intact/2511_RIO_out.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eva-maria/Data_exchange_folder/SAUSAGE_beta1/Spectral_data/ESI/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD4093-1B48-E041-BDB4-E9184E2C81AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37440" yWindow="460" windowWidth="37440" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="49">
   <si>
     <t>parameters:</t>
   </si>
   <si>
-    <t>data:</t>
+    <t>pattern:</t>
   </si>
   <si>
-    <t>/Users/eva-maria/Data_exchange_folder/SAUSAGE_beta1/Spectral_data/ESI/2511_RIO.txt</t>
+    <t>/Users/eva-maria/Data_exchange_folder/SAUSAGE_beta1/Spectral_data/intact/2511_RIO.txt</t>
   </si>
   <si>
     <t>date:</t>
   </si>
   <si>
-    <t>30/11/2020 20:45</t>
+    <t>25/02/2021 14:54</t>
   </si>
   <si>
     <t>minMz</t>
@@ -67,9 +61,6 @@
     <t>spectralData</t>
   </si>
   <si>
-    <t>2511_RIO.txt</t>
-  </si>
-  <si>
     <t>sprayMode</t>
   </si>
   <si>
@@ -82,7 +73,7 @@
     <t>spectralFile 1</t>
   </si>
   <si>
-    <t>observed spectrum:</t>
+    <t>observed __spectrum:</t>
   </si>
   <si>
     <t>m/z</t>
@@ -171,21 +162,16 @@
   <si>
     <t>spectralFile 4</t>
   </si>
-  <si>
-    <t>1xRIO</t>
-  </si>
-  <si>
-    <t>3xRIO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,22 +202,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -278,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,27 +288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,24 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,21 +497,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="L182" sqref="L182:L216"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -577,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -585,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,7 +533,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -601,7 +541,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -609,7 +549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -617,15 +557,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -633,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -641,105 +581,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>9.285417965607806</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
         <v>40</v>
       </c>
-      <c r="R18" t="s">
+      <c r="U18" t="s">
         <v>41</v>
       </c>
-      <c r="U18" t="s">
+      <c r="X18" t="s">
         <v>42</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AA18" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>44</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AG18" t="s">
         <v>45</v>
       </c>
-      <c r="AG18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19">
-        <v>710.33258949363506</v>
+        <v>710.3325894936351</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -754,64 +688,64 @@
         <v>0.3</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>6</v>
       </c>
       <c r="J19" s="1">
-        <v>0.28834302820599972</v>
+        <v>0.2883430282059997</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>712.1647767630468</v>
       </c>
@@ -822,13 +756,13 @@
         <v>3854712</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0.8</v>
       </c>
       <c r="G20" s="1">
-        <v>1.682549762606996E-3</v>
+        <v>0.001682549762606996</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -837,58 +771,58 @@
         <v>0.2420044778973674</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2">
         <f>AVERAGE(P20:P26)</f>
-        <v>0.6748587864027078</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>6</v>
       </c>
       <c r="P20" s="2">
-        <v>0.55221299010692271</v>
+        <v>0.5522129901069227</v>
       </c>
       <c r="R20">
         <v>6</v>
       </c>
       <c r="S20" s="2">
-        <v>0.10133065398288869</v>
+        <v>0.1013306539828887</v>
       </c>
       <c r="U20">
         <v>6</v>
       </c>
       <c r="V20" s="2">
-        <v>7.8921760339498812E-2</v>
+        <v>0.07892176033949881</v>
       </c>
       <c r="X20">
         <v>6</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.18744955957258649</v>
+        <v>0.1874495595725865</v>
       </c>
       <c r="AA20">
         <v>6</v>
       </c>
       <c r="AB20" s="2">
-        <v>3.2648176189591913E-2</v>
+        <v>0.03264817618959191</v>
       </c>
       <c r="AD20">
         <v>6</v>
       </c>
       <c r="AE20" s="2">
-        <v>2.662842717320155E-2</v>
+        <v>0.02662842717320155</v>
       </c>
       <c r="AG20">
         <v>6</v>
       </c>
       <c r="AH20" s="2">
-        <v>2.080843263530982E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.02080843263530982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21">
-        <v>713.49551125874223</v>
+        <v>713.4955112587422</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -897,7 +831,7 @@
         <v>3364095</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -906,61 +840,61 @@
         <v>8</v>
       </c>
       <c r="J21" s="1">
-        <v>0.21605328668054349</v>
+        <v>0.2160532866805435</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2">
         <f>AVERAGE(S20:S26)</f>
-        <v>6.9192712057505518E-2</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>7</v>
       </c>
       <c r="P21" s="2">
-        <v>0.60221440408641802</v>
+        <v>0.602214404086418</v>
       </c>
       <c r="R21">
         <v>7</v>
       </c>
       <c r="S21" s="2">
-        <v>9.2977353849254693E-2</v>
+        <v>0.09297735384925469</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21" s="2">
-        <v>7.5769579140323506E-2</v>
+        <v>0.07576957914032351</v>
       </c>
       <c r="X21">
         <v>7</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.16184551886836629</v>
+        <v>0.1618455188683663</v>
       </c>
       <c r="AA21">
         <v>7</v>
       </c>
       <c r="AB21" s="2">
-        <v>2.6058371501387689E-2</v>
+        <v>0.02605837150138769</v>
       </c>
       <c r="AD21">
         <v>7</v>
       </c>
       <c r="AE21" s="2">
-        <v>2.816895758088624E-2</v>
+        <v>0.02816895758088624</v>
       </c>
       <c r="AG21">
         <v>7</v>
       </c>
       <c r="AH21" s="2">
-        <v>1.2965814973363601E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.0129658149733636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22">
-        <v>731.26627510258618</v>
+        <v>731.2662751025862</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -969,7 +903,7 @@
         <v>14643298</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0.8</v>
@@ -978,61 +912,61 @@
         <v>9</v>
       </c>
       <c r="J22" s="1">
-        <v>0.21424294961018911</v>
+        <v>0.2142429496101891</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="2">
         <f>AVERAGE(V20:V26)</f>
-        <v>5.4014507128655742E-2</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>8</v>
       </c>
       <c r="P22" s="2">
-        <v>0.66071998804532783</v>
+        <v>0.6607199880453278</v>
       </c>
       <c r="R22">
         <v>8</v>
       </c>
       <c r="S22" s="2">
-        <v>7.9587653778394177E-2</v>
+        <v>0.07958765377839418</v>
       </c>
       <c r="U22">
         <v>8</v>
       </c>
       <c r="V22" s="2">
-        <v>5.8109974065985011E-2</v>
+        <v>0.05810997406598501</v>
       </c>
       <c r="X22">
         <v>8</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.14817461002992099</v>
+        <v>0.148174610029921</v>
       </c>
       <c r="AA22">
         <v>8</v>
       </c>
       <c r="AB22" s="2">
-        <v>1.9422719867062281E-2</v>
+        <v>0.01942271986706228</v>
       </c>
       <c r="AD22">
         <v>8</v>
       </c>
       <c r="AE22" s="2">
-        <v>1.951415164305912E-2</v>
+        <v>0.01951415164305912</v>
       </c>
       <c r="AG22">
         <v>8</v>
       </c>
       <c r="AH22" s="2">
-        <v>1.447090257025057E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01447090257025057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23">
-        <v>774.99967569622834</v>
+        <v>774.9996756962283</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -1044,20 +978,20 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <v>0.19692890576984681</v>
+        <v>0.1969289057698468</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2">
         <f>AVERAGE(Y20:Y26)</f>
-        <v>0.15945238710666229</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>9</v>
@@ -1069,13 +1003,13 @@
         <v>9</v>
       </c>
       <c r="S23" s="2">
-        <v>6.3520746491142713E-2</v>
+        <v>0.06352074649114271</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
       <c r="V23" s="2">
-        <v>5.6129293009081399E-2</v>
+        <v>0.0561292930090814</v>
       </c>
       <c r="X23">
         <v>9</v>
@@ -1087,24 +1021,24 @@
         <v>9</v>
       </c>
       <c r="AB23" s="2">
-        <v>1.328575694376352E-2</v>
+        <v>0.01328575694376352</v>
       </c>
       <c r="AD23">
         <v>9</v>
       </c>
       <c r="AE23" s="2">
-        <v>9.5654923983952769E-3</v>
+        <v>0.009565492398395277</v>
       </c>
       <c r="AG23">
         <v>9</v>
       </c>
       <c r="AH23" s="2">
-        <v>1.24775411503003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.0124775411503003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24">
-        <v>776.99841731637275</v>
+        <v>776.9984173163728</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1113,41 +1047,41 @@
         <v>17914724</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I24">
         <v>11</v>
       </c>
       <c r="J24" s="1">
-        <v>0.19272803304196859</v>
+        <v>0.1927280330419686</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="2">
         <f>AVERAGE(AB20:AB26)</f>
-        <v>1.6167034890909589E-2</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>10</v>
       </c>
       <c r="P24" s="2">
-        <v>0.71904161162911973</v>
+        <v>0.7190416116291197</v>
       </c>
       <c r="R24">
         <v>10</v>
       </c>
       <c r="S24" s="2">
-        <v>5.4263976671370992E-2</v>
+        <v>0.05426397667137099</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24" s="2">
-        <v>4.1847194133541363E-2</v>
+        <v>0.04184719413354136</v>
       </c>
       <c r="X24">
         <v>10</v>
@@ -1159,24 +1093,24 @@
         <v>10</v>
       </c>
       <c r="AB24" s="2">
-        <v>9.2651194009750089E-3</v>
+        <v>0.009265119400975009</v>
       </c>
       <c r="AD24">
         <v>10</v>
       </c>
       <c r="AE24" s="2">
-        <v>7.7109752345484858E-3</v>
+        <v>0.007710975234548486</v>
       </c>
       <c r="AG24">
         <v>10</v>
       </c>
       <c r="AH24" s="2">
-        <v>1.208168820387899E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01208168820387899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25">
-        <v>778.44951224730175</v>
+        <v>778.4495122473018</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -1185,7 +1119,7 @@
         <v>11114307</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>-0.83</v>
@@ -1194,61 +1128,61 @@
         <v>12</v>
       </c>
       <c r="J25" s="1">
-        <v>0.14802578331647809</v>
+        <v>0.1480257833164781</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="2">
         <f>AVERAGE(AE20:AE26)</f>
-        <v>1.4201929035776812E-2</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>11</v>
       </c>
       <c r="P25" s="2">
-        <v>0.73223702739790597</v>
+        <v>0.732237027397906</v>
       </c>
       <c r="R25">
         <v>11</v>
       </c>
       <c r="S25" s="2">
-        <v>5.3702188971217028E-2</v>
+        <v>0.05370218897121703</v>
       </c>
       <c r="U25">
         <v>11</v>
       </c>
       <c r="V25" s="2">
-        <v>3.331687470028119E-2</v>
+        <v>0.03331687470028119</v>
       </c>
       <c r="X25">
         <v>11</v>
       </c>
       <c r="Y25" s="2">
-        <v>0.14844518526528919</v>
+        <v>0.1484451852652892</v>
       </c>
       <c r="AA25">
         <v>11</v>
       </c>
       <c r="AB25" s="2">
-        <v>1.248910033358671E-2</v>
+        <v>0.01248910033358671</v>
       </c>
       <c r="AD25">
         <v>11</v>
       </c>
       <c r="AE25" s="2">
-        <v>7.8254992203470129E-3</v>
+        <v>0.007825499220347013</v>
       </c>
       <c r="AG25">
         <v>11</v>
       </c>
       <c r="AH25" s="2">
-        <v>1.198412411137283E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01198412411137283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26">
-        <v>797.83604821236008</v>
+        <v>797.8360482123601</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -1257,48 +1191,48 @@
         <v>49520412</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0.11</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1">
         <f>AVERAGE(J19:J25)</f>
-        <v>0.21404663778891328</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" s="2">
         <f>AVERAGE(AH20:AH26)</f>
-        <v>1.2112643377782301E-2</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>12</v>
       </c>
       <c r="P26" s="2">
-        <v>0.77900093151337269</v>
+        <v>0.7790009315133727</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" s="2">
-        <v>3.8966410658270292E-2</v>
+        <v>0.03896641065827029</v>
       </c>
       <c r="U26">
         <v>12</v>
       </c>
       <c r="V26" s="2">
-        <v>3.4006874511878907E-2</v>
+        <v>0.03400687451187891</v>
       </c>
       <c r="X26">
         <v>12</v>
       </c>
       <c r="Y26" s="2">
-        <v>0.14802578331647809</v>
+        <v>0.1480257833164781</v>
       </c>
       <c r="AA26">
         <v>12</v>
@@ -1319,9 +1253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="A27">
-        <v>799.83499338490094</v>
+        <v>799.8349933849009</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -1330,13 +1264,13 @@
         <v>4166288</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>801.2863208977044</v>
       </c>
@@ -1347,15 +1281,15 @@
         <v>2610539</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
-        <v>820.67168121448515</v>
+        <v>820.6716812144851</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -1364,15 +1298,15 @@
         <v>3997831</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
-        <v>852.59999594265878</v>
+        <v>852.5999959426588</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1387,9 +1321,9 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
-        <v>854.79830698422109</v>
+        <v>854.7983069842211</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1398,15 +1332,15 @@
         <v>30614404</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
-        <v>856.39559610436277</v>
+        <v>856.3955961043628</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1415,15 +1349,15 @@
         <v>23609160</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>-0.35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>877.72050438473559</v>
+        <v>877.7205043847356</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1432,15 +1366,15 @@
         <v>87892576</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>879.91872971272539</v>
+        <v>879.9187297127254</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1449,15 +1383,15 @@
         <v>5227153</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>881.51530192181076</v>
+        <v>881.5153019218108</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1466,15 +1400,15 @@
         <v>4350343</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>-0.65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>902.83934177860692</v>
+        <v>902.8393417786069</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1483,15 +1417,15 @@
         <v>6816192</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>-1.02</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
-        <v>947.44445370883886</v>
+        <v>947.4444537088389</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1506,7 +1440,7 @@
         <v>-1.21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>949.8877218050211</v>
       </c>
@@ -1517,15 +1451,15 @@
         <v>27701562</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>-0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
-        <v>951.66313064437463</v>
+        <v>951.6631306443746</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1534,15 +1468,15 @@
         <v>24478130</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0.22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
-        <v>975.35653621862957</v>
+        <v>975.3565362186296</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1551,15 +1485,15 @@
         <v>72583440</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
-        <v>977.79953959997999</v>
+        <v>977.79953959998</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -1568,15 +1502,15 @@
         <v>5793953</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0.43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
-        <v>979.57283219001715</v>
+        <v>979.5728321900172</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -1585,13 +1519,13 @@
         <v>4171536</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>-1.19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1003.268639248044</v>
       </c>
@@ -1602,13 +1536,13 @@
         <v>5441488</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0.87</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>1066.001783647275</v>
       </c>
@@ -1625,7 +1559,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>1068.750260590956</v>
       </c>
@@ -1636,15 +1570,15 @@
         <v>20169416</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
-        <v>1070.7460976635009</v>
+        <v>1070.746097663501</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1653,13 +1587,13 @@
         <v>14726458</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>1097.401897354551</v>
       </c>
@@ -1670,15 +1604,15 @@
         <v>37550992</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
-        <v>1100.1516910757221</v>
+        <v>1100.151691075722</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1687,13 +1621,13 @@
         <v>4922182</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <v>1.61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>1102.14666296787</v>
       </c>
@@ -1704,13 +1638,13 @@
         <v>4945353</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>1128.802117654971</v>
       </c>
@@ -1721,13 +1655,13 @@
         <v>3667273</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>1218.43163923884</v>
       </c>
@@ -1744,9 +1678,9 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
-        <v>1221.5732544463351</v>
+        <v>1221.573254446335</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -1755,13 +1689,13 @@
         <v>13650792</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>1223.853923897904</v>
       </c>
@@ -1772,13 +1706,13 @@
         <v>11124373</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>-0.39</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>1254.317788926754</v>
       </c>
@@ -1789,13 +1723,13 @@
         <v>23761910</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1257.458552833217</v>
       </c>
@@ -1806,13 +1740,13 @@
         <v>3825850</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0.37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>1259.741048766793</v>
       </c>
@@ -1823,13 +1757,13 @@
         <v>4135723</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>0.77</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>1290.20667883856</v>
       </c>
@@ -1840,13 +1774,13 @@
         <v>1903621</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>1421.669323919728</v>
       </c>
@@ -1863,7 +1797,7 @@
         <v>-1.91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>1425.332331082707</v>
       </c>
@@ -1874,13 +1808,13 @@
         <v>14122564</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>-2.36</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>1427.997487949649</v>
       </c>
@@ -1891,13 +1825,13 @@
         <v>10999412</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>1463.539842810643</v>
       </c>
@@ -1908,15 +1842,15 @@
         <v>26125050</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
-        <v>1467.2014117645749</v>
+        <v>1467.201411764575</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1925,15 +1859,15 @@
         <v>4550212</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
-        <v>1469.8665172942499</v>
+        <v>1469.86651729425</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1942,15 +1876,15 @@
         <v>3711233</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>1.28</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
-        <v>1505.4063275156229</v>
+        <v>1505.406327515623</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -1959,90 +1893,84 @@
         <v>2900094</v>
       </c>
       <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
         <v>31</v>
       </c>
-      <c r="E64">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="A68" t="s">
         <v>20</v>
       </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1">
+        <v>9.196522308006388</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
         <v>34</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="1">
-        <v>9.1965223080063883</v>
-      </c>
-      <c r="I68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" t="s">
-        <v>38</v>
-      </c>
       <c r="O68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s">
         <v>40</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>41</v>
       </c>
-      <c r="U68" t="s">
+      <c r="X68" t="s">
         <v>42</v>
       </c>
-      <c r="X68" t="s">
+      <c r="AA68" t="s">
         <v>43</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AD68" t="s">
         <v>44</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AG68" t="s">
         <v>45</v>
       </c>
-      <c r="AG68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69">
-        <v>710.33287637646401</v>
+        <v>710.332876376464</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -2057,66 +1985,66 @@
         <v>0.7</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69">
         <v>6</v>
       </c>
       <c r="J69" s="1">
-        <v>0.30584674214167518</v>
+        <v>0.3058467421416752</v>
       </c>
       <c r="L69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70">
-        <v>712.16457366325938</v>
+        <v>712.1645736632594</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -2125,32 +2053,32 @@
         <v>6086035</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>0.51</v>
       </c>
       <c r="G70" s="1">
-        <v>-1.6325525600056439E-2</v>
+        <v>-0.01632552560005644</v>
       </c>
       <c r="I70">
         <v>7</v>
       </c>
       <c r="J70" s="1">
-        <v>0.24400001761187801</v>
+        <v>0.244000017611878</v>
       </c>
       <c r="L70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M70" s="2">
         <f>AVERAGE(P70:P76)</f>
-        <v>0.66660818770000241</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>6</v>
       </c>
       <c r="P70" s="2">
-        <v>0.53978933267941831</v>
+        <v>0.5397893326794183</v>
       </c>
       <c r="R70">
         <v>6</v>
@@ -2162,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="V70" s="2">
-        <v>6.2569230333429607E-2</v>
+        <v>0.06256923033342961</v>
       </c>
       <c r="X70">
         <v>6</v>
@@ -2174,24 +2102,24 @@
         <v>6</v>
       </c>
       <c r="AB70" s="2">
-        <v>3.6992429405895103E-2</v>
+        <v>0.0369924294058951</v>
       </c>
       <c r="AD70">
         <v>6</v>
       </c>
       <c r="AE70" s="2">
-        <v>2.4101141897529162E-2</v>
+        <v>0.02410114189752916</v>
       </c>
       <c r="AG70">
         <v>6</v>
       </c>
       <c r="AH70" s="2">
-        <v>2.1341214685517751E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.02134121468551775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71">
-        <v>713.49647098177206</v>
+        <v>713.4964709817721</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -2200,7 +2128,7 @@
         <v>2150943</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
         <v>1.54</v>
@@ -2209,61 +2137,61 @@
         <v>8</v>
       </c>
       <c r="J71" s="1">
-        <v>0.22140393629266561</v>
+        <v>0.2214039362926656</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M71" s="2">
         <f>AVERAGE(S70:S76)</f>
-        <v>8.3225276032480852E-2</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>7</v>
       </c>
       <c r="P71" s="2">
-        <v>0.59386137993138333</v>
+        <v>0.5938613799313833</v>
       </c>
       <c r="R71">
         <v>7</v>
       </c>
       <c r="S71" s="2">
-        <v>0.10354870140986371</v>
+        <v>0.1035487014098637</v>
       </c>
       <c r="U71">
         <v>7</v>
       </c>
       <c r="V71" s="2">
-        <v>7.0743148305878634E-2</v>
+        <v>0.07074314830587863</v>
       </c>
       <c r="X71">
         <v>7</v>
       </c>
       <c r="Y71" s="2">
-        <v>0.16797304962087481</v>
+        <v>0.1679730496208748</v>
       </c>
       <c r="AA71">
         <v>7</v>
       </c>
       <c r="AB71" s="2">
-        <v>2.819521031835244E-2</v>
+        <v>0.02819521031835244</v>
       </c>
       <c r="AD71">
         <v>7</v>
       </c>
       <c r="AE71" s="2">
-        <v>2.3525263154643521E-2</v>
+        <v>0.02352526315464352</v>
       </c>
       <c r="AG71">
         <v>7</v>
       </c>
       <c r="AH71" s="2">
-        <v>1.215324725900363E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01215324725900363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72">
-        <v>731.26616203823232</v>
+        <v>731.2661620382323</v>
       </c>
       <c r="B72">
         <v>12</v>
@@ -2272,7 +2200,7 @@
         <v>15212687</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0.64</v>
@@ -2284,29 +2212,29 @@
         <v>0.1925425061385875</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M72" s="2">
         <f>AVERAGE(V70:V76)</f>
-        <v>4.6883840914273181E-2</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>8</v>
       </c>
       <c r="P72" s="2">
-        <v>0.64700367453973073</v>
+        <v>0.6470036745397307</v>
       </c>
       <c r="R72">
         <v>8</v>
       </c>
       <c r="S72" s="2">
-        <v>8.951150432160361E-2</v>
+        <v>0.08951150432160361</v>
       </c>
       <c r="U72">
         <v>8</v>
       </c>
       <c r="V72" s="2">
-        <v>5.5938180781028489E-2</v>
+        <v>0.05593818078102849</v>
       </c>
       <c r="X72">
         <v>8</v>
@@ -2318,24 +2246,24 @@
         <v>8</v>
       </c>
       <c r="AB72" s="2">
-        <v>2.5631509414172839E-2</v>
+        <v>0.02563150941417284</v>
       </c>
       <c r="AD72">
         <v>8</v>
       </c>
       <c r="AE72" s="2">
-        <v>1.9228251149993141E-2</v>
+        <v>0.01922825114999314</v>
       </c>
       <c r="AG72">
         <v>8</v>
       </c>
       <c r="AH72" s="2">
-        <v>1.3857295935028409E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01385729593502841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73">
-        <v>774.99945126821569</v>
+        <v>774.9994512682157</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -2356,58 +2284,58 @@
         <v>0.1855150789162632</v>
       </c>
       <c r="L73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M73" s="2">
         <f>AVERAGE(Y70:Y76)</f>
-        <v>0.15870078937366663</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <v>9</v>
       </c>
       <c r="P73" s="2">
-        <v>0.70405703415518783</v>
+        <v>0.7040570341551878</v>
       </c>
       <c r="R73">
         <v>9</v>
       </c>
       <c r="S73" s="2">
-        <v>7.4956720832901919E-2</v>
+        <v>0.07495672083290192</v>
       </c>
       <c r="U73">
         <v>9</v>
       </c>
       <c r="V73" s="2">
-        <v>4.2550730670923027E-2</v>
+        <v>0.04255073067092303</v>
       </c>
       <c r="X73">
         <v>9</v>
       </c>
       <c r="Y73" s="2">
-        <v>0.13872860931677161</v>
+        <v>0.1387286093167716</v>
       </c>
       <c r="AA73">
         <v>9</v>
       </c>
       <c r="AB73" s="2">
-        <v>1.6470215314398559E-2</v>
+        <v>0.01647021531439856</v>
       </c>
       <c r="AD73">
         <v>9</v>
       </c>
       <c r="AE73" s="2">
-        <v>9.1296979122166347E-3</v>
+        <v>0.009129697912216635</v>
       </c>
       <c r="AG73">
         <v>9</v>
       </c>
       <c r="AH73" s="2">
-        <v>1.4106991797600339E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01410699179760034</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74">
-        <v>776.99836460540689</v>
+        <v>776.9983646054069</v>
       </c>
       <c r="B74">
         <v>11</v>
@@ -2416,7 +2344,7 @@
         <v>20520100</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0.5</v>
@@ -2425,61 +2353,61 @@
         <v>11</v>
       </c>
       <c r="J74" s="1">
-        <v>0.19339358048310101</v>
+        <v>0.193393580483101</v>
       </c>
       <c r="L74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M74" s="2">
         <f>AVERAGE(AB70:AB76)</f>
-        <v>1.8947967747115924E-2</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>10</v>
       </c>
       <c r="P74" s="2">
-        <v>0.72107252007191691</v>
+        <v>0.7210725200719169</v>
       </c>
       <c r="R74">
         <v>10</v>
       </c>
       <c r="S74" s="2">
-        <v>6.9705396044507623E-2</v>
+        <v>0.06970539604450762</v>
       </c>
       <c r="U74">
         <v>10</v>
       </c>
       <c r="V74" s="2">
-        <v>3.5421396402759389E-2</v>
+        <v>0.03542139640275939</v>
       </c>
       <c r="X74">
         <v>10</v>
       </c>
       <c r="Y74" s="2">
-        <v>0.13966786618392621</v>
+        <v>0.1396678661839262</v>
       </c>
       <c r="AA74">
         <v>10</v>
       </c>
       <c r="AB74" s="2">
-        <v>1.3527827984024649E-2</v>
+        <v>0.01352782798402465</v>
       </c>
       <c r="AD74">
         <v>10</v>
       </c>
       <c r="AE74" s="2">
-        <v>8.8906018774181396E-3</v>
+        <v>0.00889060187741814</v>
       </c>
       <c r="AG74">
         <v>10</v>
       </c>
       <c r="AH74" s="2">
-        <v>1.17143914354471E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.0117143914354471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75">
-        <v>778.45020358971772</v>
+        <v>778.4502035897177</v>
       </c>
       <c r="B75">
         <v>11</v>
@@ -2488,7 +2416,7 @@
         <v>11806757</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75">
         <v>0.06</v>
@@ -2497,14 +2425,14 @@
         <v>12</v>
       </c>
       <c r="J75" s="1">
-        <v>0.16694041265670301</v>
+        <v>0.166940412656703</v>
       </c>
       <c r="L75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M75" s="2">
         <f>AVERAGE(AE70:AE76)</f>
-        <v>1.3253451551294171E-2</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>11</v>
@@ -2516,42 +2444,42 @@
         <v>11</v>
       </c>
       <c r="S75" s="2">
-        <v>6.4931998018153442E-2</v>
+        <v>0.06493199801815344</v>
       </c>
       <c r="U75">
         <v>11</v>
       </c>
       <c r="V75" s="2">
-        <v>3.7360262480437202E-2</v>
+        <v>0.0373602624804372</v>
       </c>
       <c r="X75">
         <v>11</v>
       </c>
       <c r="Y75" s="2">
-        <v>0.14669526251173221</v>
+        <v>0.1466952625117322</v>
       </c>
       <c r="AA75">
         <v>11</v>
       </c>
       <c r="AB75" s="2">
-        <v>1.1818581792967889E-2</v>
+        <v>0.01181858179296789</v>
       </c>
       <c r="AD75">
         <v>11</v>
       </c>
       <c r="AE75" s="2">
-        <v>7.8992048672586E-3</v>
+        <v>0.0078992048672586</v>
       </c>
       <c r="AG75">
         <v>11</v>
       </c>
       <c r="AH75" s="2">
-        <v>1.3490265655571111E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01349026565557111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76">
-        <v>797.83623387233467</v>
+        <v>797.8362338723347</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -2560,48 +2488,48 @@
         <v>46359292</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>0.34</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J76" s="1">
         <f>AVERAGE(J69:J75)</f>
-        <v>0.21566318203441051</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M76" s="2">
         <f>AVERAGE(AH70:AH76)</f>
-        <v>1.2380486681166907E-2</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>12</v>
       </c>
       <c r="P76" s="2">
-        <v>0.74266894784850002</v>
+        <v>0.7426689478485</v>
       </c>
       <c r="R76">
         <v>12</v>
       </c>
       <c r="S76" s="2">
-        <v>6.6786702069341036E-2</v>
+        <v>0.06678670206934104</v>
       </c>
       <c r="U76">
         <v>12</v>
       </c>
       <c r="V76" s="2">
-        <v>2.3603937425455919E-2</v>
+        <v>0.02360393742545592</v>
       </c>
       <c r="X76">
         <v>12</v>
       </c>
       <c r="Y76" s="2">
-        <v>0.16694041265670301</v>
+        <v>0.166940412656703</v>
       </c>
       <c r="AA76">
         <v>12</v>
@@ -2622,9 +2550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34">
       <c r="A77">
-        <v>799.83441164842225</v>
+        <v>799.8344116484222</v>
       </c>
       <c r="B77">
         <v>11</v>
@@ -2633,15 +2561,15 @@
         <v>3734961</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <v>0.11</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34">
       <c r="A78">
-        <v>801.19640125309775</v>
+        <v>801.1964012530977</v>
       </c>
       <c r="B78">
         <v>11</v>
@@ -2650,15 +2578,15 @@
         <v>2496342</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78">
         <v>-112.44</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34">
       <c r="A79">
-        <v>820.67159738864893</v>
+        <v>820.6715973886489</v>
       </c>
       <c r="B79">
         <v>11</v>
@@ -2667,15 +2595,15 @@
         <v>4263254</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79">
         <v>-0.86</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34">
       <c r="A80">
-        <v>852.59911847200431</v>
+        <v>852.5991184720043</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2690,9 +2618,9 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
-        <v>854.79798383787136</v>
+        <v>854.7979838378714</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -2701,15 +2629,15 @@
         <v>38043296</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <v>-0.61</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
-        <v>856.39605890814698</v>
+        <v>856.396058908147</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -2718,15 +2646,15 @@
         <v>19332028</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82">
         <v>0.19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
-        <v>877.72000761820345</v>
+        <v>877.7200076182035</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -2735,15 +2663,15 @@
         <v>76226896</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
-        <v>879.91798834848566</v>
+        <v>879.9179883484857</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -2752,15 +2680,15 @@
         <v>7383118</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
-        <v>881.41640365480453</v>
+        <v>881.4164036548045</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -2769,15 +2697,15 @@
         <v>4852247</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E85">
         <v>-112.84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
-        <v>902.84021839562126</v>
+        <v>902.8402183956213</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -2786,15 +2714,15 @@
         <v>6393394</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E86">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
-        <v>947.44380852823485</v>
+        <v>947.4438085282349</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -2809,9 +2737,9 @@
         <v>-1.89</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
-        <v>949.88741495608519</v>
+        <v>949.8874149560852</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -2820,15 +2748,15 @@
         <v>40606524</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88">
         <v>-0.65</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
-        <v>951.66235262678913</v>
+        <v>951.6623526267891</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -2837,15 +2765,15 @@
         <v>23051132</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
         <v>-0.59</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
-        <v>975.35628894562547</v>
+        <v>975.3562889456255</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -2854,15 +2782,15 @@
         <v>75153856</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
-        <v>977.79925200764478</v>
+        <v>977.7992520076448</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -2871,15 +2799,15 @@
         <v>8922458</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91">
         <v>0.13</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
-        <v>979.57505455899252</v>
+        <v>979.5750545589925</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -2888,13 +2816,13 @@
         <v>4945858</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92">
         <v>1.07</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>1003.267045399286</v>
       </c>
@@ -2905,13 +2833,13 @@
         <v>7642222</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>1066.000844599685</v>
       </c>
@@ -2928,9 +2856,9 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
-        <v>1068.7500962256411</v>
+        <v>1068.750096225641</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -2939,13 +2867,13 @@
         <v>28932256</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>1070.746576797819</v>
       </c>
@@ -2956,13 +2884,13 @@
         <v>18080556</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>1097.401970375927</v>
       </c>
@@ -2973,15 +2901,15 @@
         <v>48105276</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E97">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
-        <v>1100.1507004057851</v>
+        <v>1100.150700405785</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -2990,15 +2918,15 @@
         <v>8284716</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98">
         <v>0.71</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
-        <v>1102.0224197989271</v>
+        <v>1102.022419798927</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -3007,13 +2935,13 @@
         <v>6215030</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E99">
         <v>-112.73</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>1128.803152489698</v>
       </c>
@@ -3024,15 +2952,15 @@
         <v>4479009</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100">
         <v>0.89</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
-        <v>1218.4317359727261</v>
+        <v>1218.431735972726</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -3047,7 +2975,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>1221.573146069341</v>
       </c>
@@ -3058,15 +2986,15 @@
         <v>15757009</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
-        <v>1223.8533864337089</v>
+        <v>1223.853386433709</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -3075,13 +3003,13 @@
         <v>10764987</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>1254.318277692674</v>
       </c>
@@ -3092,13 +3020,13 @@
         <v>25560464</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E104">
         <v>0.37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>1257.459658800715</v>
       </c>
@@ -3109,13 +3037,13 @@
         <v>4290466</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E105">
         <v>1.25</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>1259.740697218446</v>
       </c>
@@ -3126,13 +3054,13 @@
         <v>3579840</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E106">
         <v>0.49</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>1290.208995548958</v>
       </c>
@@ -3143,13 +3071,13 @@
         <v>1849360</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E107">
         <v>4.26</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>1421.668671801837</v>
       </c>
@@ -3166,9 +3094,9 @@
         <v>-2.37</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
-        <v>1425.3323613258849</v>
+        <v>1425.332361325885</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -3177,15 +3105,15 @@
         <v>15448460</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <v>-2.34</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
-        <v>1427.9945315926329</v>
+        <v>1427.994531592633</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -3194,15 +3122,15 @@
         <v>8543691</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110">
         <v>-2.44</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
-        <v>1463.5407160530699</v>
+        <v>1463.54071605307</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -3211,13 +3139,13 @@
         <v>27592316</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E111">
         <v>1.4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>1467.202700402554</v>
       </c>
@@ -3228,13 +3156,13 @@
         <v>5051235</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E112">
         <v>0.26</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34">
       <c r="A113">
         <v>1469.69701570198</v>
       </c>
@@ -3245,13 +3173,13 @@
         <v>3290958</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E113">
         <v>-114.04</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34">
       <c r="A114">
         <v>1505.407221035686</v>
       </c>
@@ -3262,90 +3190,84 @@
         <v>2914096</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E114">
         <v>1.28</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+      <c r="L117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
+      <c r="A118" t="s">
         <v>20</v>
       </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="1">
+        <v>9.162428284291719</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
         <v>34</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L118" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" s="1">
-        <v>9.1624282842917193</v>
-      </c>
-      <c r="I118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" t="s">
-        <v>35</v>
-      </c>
-      <c r="L118" t="s">
-        <v>38</v>
-      </c>
       <c r="O118" t="s">
+        <v>39</v>
+      </c>
+      <c r="R118" t="s">
         <v>40</v>
       </c>
-      <c r="R118" t="s">
+      <c r="U118" t="s">
         <v>41</v>
       </c>
-      <c r="U118" t="s">
+      <c r="X118" t="s">
         <v>42</v>
       </c>
-      <c r="X118" t="s">
+      <c r="AA118" t="s">
         <v>43</v>
       </c>
-      <c r="AA118" t="s">
+      <c r="AD118" t="s">
         <v>44</v>
       </c>
-      <c r="AD118" t="s">
+      <c r="AG118" t="s">
         <v>45</v>
       </c>
-      <c r="AG118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:34">
       <c r="A119">
-        <v>710.33316419561879</v>
+        <v>710.3331641956188</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -3357,69 +3279,69 @@
         <v>11</v>
       </c>
       <c r="E119">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I119">
         <v>6</v>
       </c>
       <c r="J119" s="1">
-        <v>0.31220023951316012</v>
+        <v>0.3122002395131601</v>
       </c>
       <c r="L119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH119" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
       <c r="A120">
-        <v>712.16521196507836</v>
+        <v>712.1652119650784</v>
       </c>
       <c r="B120">
         <v>12</v>
@@ -3428,44 +3350,44 @@
         <v>5872283</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120">
         <v>1.41</v>
       </c>
       <c r="G120" s="1">
-        <v>-4.9322806354750272E-4</v>
+        <v>-0.0004932280635475027</v>
       </c>
       <c r="I120">
         <v>7</v>
       </c>
       <c r="J120" s="1">
-        <v>0.26871520901069029</v>
+        <v>0.2687152090106903</v>
       </c>
       <c r="L120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M120" s="2">
         <f>AVERAGE(P120:P126)</f>
-        <v>0.61364403844505999</v>
+        <v>0</v>
       </c>
       <c r="O120">
         <v>6</v>
       </c>
       <c r="P120" s="2">
-        <v>0.45299611577283322</v>
+        <v>0.4529961157728332</v>
       </c>
       <c r="R120">
         <v>6</v>
       </c>
       <c r="S120" s="2">
-        <v>0.14227614454104959</v>
+        <v>0.1422761445410496</v>
       </c>
       <c r="U120">
         <v>6</v>
       </c>
       <c r="V120" s="2">
-        <v>9.2527500172957064E-2</v>
+        <v>0.09252750017295706</v>
       </c>
       <c r="X120">
         <v>6</v>
@@ -3477,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="AB120" s="2">
-        <v>5.6213339114600427E-2</v>
+        <v>0.05621333911460043</v>
       </c>
       <c r="AD120">
         <v>6</v>
       </c>
       <c r="AE120" s="2">
-        <v>3.4984444963212867E-2</v>
+        <v>0.03498444496321287</v>
       </c>
       <c r="AG120">
         <v>6</v>
@@ -3492,9 +3414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34">
       <c r="A121">
-        <v>713.49524959011137</v>
+        <v>713.4952495901114</v>
       </c>
       <c r="B121">
         <v>12</v>
@@ -3503,7 +3425,7 @@
         <v>2666303</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121">
         <v>-0.17</v>
@@ -3512,20 +3434,20 @@
         <v>8</v>
       </c>
       <c r="J121" s="1">
-        <v>0.20439647507035841</v>
+        <v>0.2043964750703584</v>
       </c>
       <c r="L121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M121" s="2">
         <f>AVERAGE(S120:S126)</f>
-        <v>0.11015199196578571</v>
+        <v>0</v>
       </c>
       <c r="O121">
         <v>7</v>
       </c>
       <c r="P121" s="2">
-        <v>0.53984713718413968</v>
+        <v>0.5398471371841397</v>
       </c>
       <c r="R121">
         <v>7</v>
@@ -3537,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="V121" s="2">
-        <v>7.3979116315540216E-2</v>
+        <v>0.07397911631554022</v>
       </c>
       <c r="X121">
         <v>7</v>
@@ -3549,24 +3471,24 @@
         <v>7</v>
       </c>
       <c r="AB121" s="2">
-        <v>4.0508400918028042E-2</v>
+        <v>0.04050840091802804</v>
       </c>
       <c r="AD121">
         <v>7</v>
       </c>
       <c r="AE121" s="2">
-        <v>3.1871144695255822E-2</v>
+        <v>0.03187114469525582</v>
       </c>
       <c r="AG121">
         <v>7</v>
       </c>
       <c r="AH121" s="2">
-        <v>1.4135128590335661E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.01413512859033566</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34">
       <c r="A122">
-        <v>731.26614523948524</v>
+        <v>731.2661452394852</v>
       </c>
       <c r="B122">
         <v>12</v>
@@ -3575,7 +3497,7 @@
         <v>18036986</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122">
         <v>0.62</v>
@@ -3584,20 +3506,20 @@
         <v>9</v>
       </c>
       <c r="J122" s="1">
-        <v>0.22283623327877539</v>
+        <v>0.2228362332787754</v>
       </c>
       <c r="L122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M122" s="2">
         <f>AVERAGE(V120:V126)</f>
-        <v>5.5539514034340209E-2</v>
+        <v>0</v>
       </c>
       <c r="O122">
         <v>8</v>
       </c>
       <c r="P122" s="2">
-        <v>0.63159898312867424</v>
+        <v>0.6315989831286742</v>
       </c>
       <c r="R122">
         <v>8</v>
@@ -3609,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="V122" s="2">
-        <v>5.6566780719222533E-2</v>
+        <v>0.05656678071922253</v>
       </c>
       <c r="X122">
         <v>8</v>
@@ -3621,24 +3543,24 @@
         <v>8</v>
       </c>
       <c r="AB122" s="2">
-        <v>2.9139234832536189E-2</v>
+        <v>0.02913923483253619</v>
       </c>
       <c r="AD122">
         <v>8</v>
       </c>
       <c r="AE122" s="2">
-        <v>2.0847667689563931E-2</v>
+        <v>0.02084766768956393</v>
       </c>
       <c r="AG122">
         <v>8</v>
       </c>
       <c r="AH122" s="2">
-        <v>8.6805530464087368E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.008680553046408737</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34">
       <c r="A123">
-        <v>774.99924540934092</v>
+        <v>774.9992454093409</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -3656,20 +3578,20 @@
         <v>10</v>
       </c>
       <c r="J123" s="1">
-        <v>0.18767233745065831</v>
+        <v>0.1876723374506583</v>
       </c>
       <c r="L123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M123" s="2">
         <f>AVERAGE(Y120:Y126)</f>
-        <v>0.16985137157261709</v>
+        <v>0</v>
       </c>
       <c r="O123">
         <v>9</v>
       </c>
       <c r="P123" s="2">
-        <v>0.61001583710103247</v>
+        <v>0.6100158371010325</v>
       </c>
       <c r="R123">
         <v>9</v>
@@ -3681,36 +3603,36 @@
         <v>9</v>
       </c>
       <c r="V123" s="2">
-        <v>5.612134242775698E-2</v>
+        <v>0.05612134242775698</v>
       </c>
       <c r="X123">
         <v>9</v>
       </c>
       <c r="Y123" s="2">
-        <v>0.16712053224391371</v>
+        <v>0.1671205322439137</v>
       </c>
       <c r="AA123">
         <v>9</v>
       </c>
       <c r="AB123" s="2">
-        <v>2.5185299604496579E-2</v>
+        <v>0.02518529960449658</v>
       </c>
       <c r="AD123">
         <v>9</v>
       </c>
       <c r="AE123" s="2">
-        <v>1.441844009326919E-2</v>
+        <v>0.01441844009326919</v>
       </c>
       <c r="AG123">
         <v>9</v>
       </c>
       <c r="AH123" s="2">
-        <v>8.055980668547973E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.008055980668547973</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34">
       <c r="A124">
-        <v>776.99821923829643</v>
+        <v>776.9982192382964</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -3719,7 +3641,7 @@
         <v>29068808</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>0.31</v>
@@ -3731,11 +3653,11 @@
         <v>0.189224852533422</v>
       </c>
       <c r="L124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M124" s="2">
         <f>AVERAGE(AB120:AB126)</f>
-        <v>2.8047207424859062E-2</v>
+        <v>0</v>
       </c>
       <c r="O124">
         <v>10</v>
@@ -3747,40 +3669,40 @@
         <v>10</v>
       </c>
       <c r="S124" s="2">
-        <v>9.8792279702774002E-2</v>
+        <v>0.098792279702774</v>
       </c>
       <c r="U124">
         <v>10</v>
       </c>
       <c r="V124" s="2">
-        <v>4.4837387383976537E-2</v>
+        <v>0.04483738738397654</v>
       </c>
       <c r="X124">
         <v>10</v>
       </c>
       <c r="Y124" s="2">
-        <v>0.13973320086933361</v>
+        <v>0.1397332008693336</v>
       </c>
       <c r="AA124">
         <v>10</v>
       </c>
       <c r="AB124" s="2">
-        <v>2.3785468569965419E-2</v>
+        <v>0.02378546856996542</v>
       </c>
       <c r="AD124">
         <v>10</v>
       </c>
       <c r="AE124" s="2">
-        <v>1.096141298631638E-2</v>
+        <v>0.01096141298631638</v>
       </c>
       <c r="AG124">
         <v>10</v>
       </c>
       <c r="AH124" s="2">
-        <v>6.5961275125214942E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.006596127512521494</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34">
       <c r="A125">
         <v>778.4488085441003</v>
       </c>
@@ -3791,7 +3713,7 @@
         <v>10452400</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <v>-1.73</v>
@@ -3803,29 +3725,29 @@
         <v>0.1970736318444489</v>
       </c>
       <c r="L125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M125" s="2">
         <f>AVERAGE(AE120:AE126)</f>
-        <v>1.7413335154793239E-2</v>
+        <v>0</v>
       </c>
       <c r="O125">
         <v>11</v>
       </c>
       <c r="P125" s="2">
-        <v>0.67612301632119631</v>
+        <v>0.6761230163211963</v>
       </c>
       <c r="R125">
         <v>11</v>
       </c>
       <c r="S125" s="2">
-        <v>9.9039911610392065E-2</v>
+        <v>0.09903991161039206</v>
       </c>
       <c r="U125">
         <v>11</v>
       </c>
       <c r="V125" s="2">
-        <v>3.5612219534989602E-2</v>
+        <v>0.0356122195349896</v>
       </c>
       <c r="X125">
         <v>11</v>
@@ -3837,13 +3759,13 @@
         <v>11</v>
       </c>
       <c r="AB125" s="2">
-        <v>2.1498708934386782E-2</v>
+        <v>0.02149870893438678</v>
       </c>
       <c r="AD125">
         <v>11</v>
       </c>
       <c r="AE125" s="2">
-        <v>8.8102356559344851E-3</v>
+        <v>0.008810235655934485</v>
       </c>
       <c r="AG125">
         <v>11</v>
@@ -3852,9 +3774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34">
       <c r="A126">
-        <v>797.83580355392735</v>
+        <v>797.8358035539273</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -3863,42 +3785,42 @@
         <v>46642772</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E126">
         <v>-0.2</v>
       </c>
       <c r="I126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J126" s="1">
         <f>AVERAGE(J119:J125)</f>
-        <v>0.22601699695735905</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M126" s="2">
         <f>AVERAGE(AH120:AH126)</f>
-        <v>5.3525414025448375E-3</v>
+        <v>0</v>
       </c>
       <c r="O126">
         <v>12</v>
       </c>
       <c r="P126" s="2">
-        <v>0.70963305663243048</v>
+        <v>0.7096330566324305</v>
       </c>
       <c r="R126">
         <v>12</v>
       </c>
       <c r="S126" s="2">
-        <v>6.4161059837182108E-2</v>
+        <v>0.06416105983718211</v>
       </c>
       <c r="U126">
         <v>12</v>
       </c>
       <c r="V126" s="2">
-        <v>2.913225168593853E-2</v>
+        <v>0.02913225168593853</v>
       </c>
       <c r="X126">
         <v>12</v>
@@ -3925,9 +3847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34">
       <c r="A127">
-        <v>799.83444182331414</v>
+        <v>799.8344418233141</v>
       </c>
       <c r="B127">
         <v>11</v>
@@ -3936,15 +3858,15 @@
         <v>6310000</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127">
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34">
       <c r="A128">
-        <v>801.28949448966046</v>
+        <v>801.2894944896605</v>
       </c>
       <c r="B128">
         <v>11</v>
@@ -3953,15 +3875,15 @@
         <v>2585857</v>
       </c>
       <c r="D128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E128">
         <v>3.74</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129">
-        <v>852.59969101944534</v>
+        <v>852.5996910194453</v>
       </c>
       <c r="B129">
         <v>10</v>
@@ -3976,9 +3898,9 @@
         <v>-0.73</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130">
-        <v>854.79770685750702</v>
+        <v>854.797706857507</v>
       </c>
       <c r="B130">
         <v>10</v>
@@ -3987,15 +3909,15 @@
         <v>50739384</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>-0.93</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131">
-        <v>856.39518227067958</v>
+        <v>856.3951822706796</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -4004,15 +3926,15 @@
         <v>23028332</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131">
         <v>-0.84</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132">
-        <v>877.72014581654844</v>
+        <v>877.7201458165484</v>
       </c>
       <c r="B132">
         <v>10</v>
@@ -4021,15 +3943,15 @@
         <v>71766504</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E132">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133">
-        <v>879.91789702743495</v>
+        <v>879.9178970274349</v>
       </c>
       <c r="B133">
         <v>10</v>
@@ -4038,15 +3960,15 @@
         <v>12216137</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134">
-        <v>881.51658639773393</v>
+        <v>881.5165863977339</v>
       </c>
       <c r="B134">
         <v>10</v>
@@ -4055,15 +3977,15 @@
         <v>5629745</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
-        <v>902.83997210521011</v>
+        <v>902.8399721052101</v>
       </c>
       <c r="B135">
         <v>10</v>
@@ -4072,15 +3994,15 @@
         <v>3387749</v>
       </c>
       <c r="D135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E135">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136">
-        <v>947.44392172111452</v>
+        <v>947.4439217211145</v>
       </c>
       <c r="B136">
         <v>9</v>
@@ -4095,9 +4017,9 @@
         <v>-1.77</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137">
-        <v>949.88728864453105</v>
+        <v>949.8872886445311</v>
       </c>
       <c r="B137">
         <v>9</v>
@@ -4106,15 +4028,15 @@
         <v>51579860</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138">
-        <v>951.66320672514973</v>
+        <v>951.6632067251497</v>
       </c>
       <c r="B138">
         <v>9</v>
@@ -4123,15 +4045,15 @@
         <v>24308604</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138">
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139">
-        <v>975.35651784611468</v>
+        <v>975.3565178461147</v>
       </c>
       <c r="B139">
         <v>9</v>
@@ -4140,15 +4062,15 @@
         <v>72387200</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E139">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140">
-        <v>977.79854135526432</v>
+        <v>977.7985413552643</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -4157,15 +4079,15 @@
         <v>10908853</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
         <v>-0.59</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141">
-        <v>979.57371423301799</v>
+        <v>979.573714233018</v>
       </c>
       <c r="B141">
         <v>9</v>
@@ -4174,15 +4096,15 @@
         <v>6245256</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E141">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
-        <v>1003.2662697806689</v>
+        <v>1003.266269780669</v>
       </c>
       <c r="B142">
         <v>9</v>
@@ -4191,15 +4113,15 @@
         <v>3489397</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E142">
         <v>-1.49</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143">
-        <v>1066.0018908777099</v>
+        <v>1066.00189087771</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -4214,7 +4136,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>1068.749702921383</v>
       </c>
@@ -4225,15 +4147,15 @@
         <v>37841912</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E144">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145">
-        <v>1070.7461938541401</v>
+        <v>1070.74619385414</v>
       </c>
       <c r="B145">
         <v>8</v>
@@ -4242,15 +4164,15 @@
         <v>18434604</v>
       </c>
       <c r="D145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E145">
         <v>-0.47</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146">
-        <v>1097.4016821599371</v>
+        <v>1097.401682159937</v>
       </c>
       <c r="B146">
         <v>8</v>
@@ -4259,15 +4181,15 @@
         <v>44662860</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E146">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147">
-        <v>1100.1507126854401</v>
+        <v>1100.15071268544</v>
       </c>
       <c r="B147">
         <v>8</v>
@@ -4276,15 +4198,15 @@
         <v>9496214</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147">
         <v>0.72</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148">
-        <v>1102.1473997408141</v>
+        <v>1102.147399740814</v>
       </c>
       <c r="B148">
         <v>8</v>
@@ -4293,13 +4215,13 @@
         <v>6794067</v>
       </c>
       <c r="D148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E148">
         <v>0.67</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>1128.800679501694</v>
       </c>
@@ -4310,13 +4232,13 @@
         <v>2828914</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E149">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>1218.433147344972</v>
       </c>
@@ -4333,9 +4255,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151">
-        <v>1221.5730878009761</v>
+        <v>1221.573087800976</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -4344,15 +4266,15 @@
         <v>21459720</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E151">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
-        <v>1223.8539585440769</v>
+        <v>1223.853958544077</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -4361,15 +4283,15 @@
         <v>12064191</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E152">
         <v>-0.36</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153">
-        <v>1254.3179140915099</v>
+        <v>1254.31791409151</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -4378,15 +4300,15 @@
         <v>27407372</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E153">
         <v>0.08</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154">
-        <v>1257.4596256613229</v>
+        <v>1257.459625661323</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -4395,13 +4317,13 @@
         <v>6605933</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154">
         <v>1.22</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>1259.743174581329</v>
       </c>
@@ -4412,15 +4334,15 @@
         <v>5197407</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
-        <v>1290.2063766411979</v>
+        <v>1290.206376641198</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -4429,13 +4351,13 @@
         <v>2305095</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E156">
         <v>2.23</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>1421.670128630584</v>
       </c>
@@ -4452,9 +4374,9 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158">
-        <v>1425.3360187283499</v>
+        <v>1425.33601872835</v>
       </c>
       <c r="B158">
         <v>6</v>
@@ -4463,13 +4385,13 @@
         <v>19228500</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>0.23</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>1427.996609123471</v>
       </c>
@@ -4480,15 +4402,15 @@
         <v>12505013</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E159">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160">
-        <v>1463.5388066768171</v>
+        <v>1463.538806676817</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -4497,15 +4419,15 @@
         <v>29868294</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160">
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:34">
       <c r="A161">
-        <v>1467.2029415690581</v>
+        <v>1467.202941569058</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -4514,15 +4436,15 @@
         <v>7597185</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E161">
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:34">
       <c r="A162">
-        <v>1469.8628427560479</v>
+        <v>1469.862842756048</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -4531,90 +4453,84 @@
         <v>4728118</v>
       </c>
       <c r="D162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E162">
         <v>-1.22</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:34">
       <c r="A164" t="s">
-        <v>49</v>
-      </c>
-      <c r="B164" t="s">
-        <v>51</v>
-      </c>
-      <c r="C164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34">
       <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" t="s">
+        <v>33</v>
+      </c>
+      <c r="L165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:34">
+      <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="1">
+        <v>9.135941679431451</v>
+      </c>
+      <c r="I166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
         <v>34</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L166" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" t="s">
-        <v>24</v>
-      </c>
-      <c r="E166" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" s="1">
-        <v>9.1359416794314505</v>
-      </c>
-      <c r="I166" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" t="s">
-        <v>35</v>
-      </c>
-      <c r="L166" t="s">
-        <v>38</v>
-      </c>
       <c r="O166" t="s">
+        <v>39</v>
+      </c>
+      <c r="R166" t="s">
         <v>40</v>
       </c>
-      <c r="R166" t="s">
+      <c r="U166" t="s">
         <v>41</v>
       </c>
-      <c r="U166" t="s">
+      <c r="X166" t="s">
         <v>42</v>
       </c>
-      <c r="X166" t="s">
+      <c r="AA166" t="s">
         <v>43</v>
       </c>
-      <c r="AA166" t="s">
+      <c r="AD166" t="s">
         <v>44</v>
       </c>
-      <c r="AD166" t="s">
+      <c r="AG166" t="s">
         <v>45</v>
       </c>
-      <c r="AG166" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:34">
       <c r="A167">
-        <v>710.33213910514314</v>
+        <v>710.3321391051431</v>
       </c>
       <c r="B167">
         <v>12</v>
@@ -4629,66 +4545,66 @@
         <v>-0.34</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I167">
         <v>6</v>
       </c>
       <c r="J167" s="1">
-        <v>0.29394632788145908</v>
+        <v>0.2939463278814591</v>
       </c>
       <c r="L167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH167" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34">
       <c r="A168">
-        <v>712.16445336253673</v>
+        <v>712.1644533625367</v>
       </c>
       <c r="B168">
         <v>12</v>
@@ -4697,73 +4613,73 @@
         <v>11536260</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E168">
         <v>0.34</v>
       </c>
       <c r="G168" s="1">
-        <v>-6.6982799300655538E-3</v>
+        <v>-0.006698279930065554</v>
       </c>
       <c r="I168">
         <v>7</v>
       </c>
       <c r="J168" s="1">
-        <v>0.26170043351997913</v>
+        <v>0.2617004335199791</v>
       </c>
       <c r="L168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M168" s="2">
         <f>AVERAGE(P168:P174)</f>
-        <v>0.61016086913729572</v>
+        <v>0</v>
       </c>
       <c r="O168">
         <v>6</v>
       </c>
       <c r="P168" s="2">
-        <v>0.46270006137473718</v>
+        <v>0.4627000613747372</v>
       </c>
       <c r="R168">
         <v>6</v>
       </c>
       <c r="S168" s="2">
-        <v>0.19003880254238811</v>
+        <v>0.1900388025423881</v>
       </c>
       <c r="U168">
         <v>6</v>
       </c>
       <c r="V168" s="2">
-        <v>6.3670132164637766E-2</v>
+        <v>0.06367013216463777</v>
       </c>
       <c r="X168">
         <v>6</v>
       </c>
       <c r="Y168" s="2">
-        <v>0.17638863536334951</v>
+        <v>0.1763886353633495</v>
       </c>
       <c r="AA168">
         <v>6</v>
       </c>
       <c r="AB168" s="2">
-        <v>6.6458427737621534E-2</v>
+        <v>0.06645842773762153</v>
       </c>
       <c r="AD168">
         <v>6</v>
       </c>
       <c r="AE168" s="2">
-        <v>3.0388616854043659E-2</v>
+        <v>0.03038861685404366</v>
       </c>
       <c r="AG168">
         <v>6</v>
       </c>
       <c r="AH168" s="2">
-        <v>1.03553239632222E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.0103553239632222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34">
       <c r="A169">
-        <v>713.49420566313199</v>
+        <v>713.494205663132</v>
       </c>
       <c r="B169">
         <v>12</v>
@@ -4772,7 +4688,7 @@
         <v>3242100</v>
       </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E169">
         <v>-1.63</v>
@@ -4781,59 +4697,59 @@
         <v>8</v>
       </c>
       <c r="J169" s="1">
-        <v>0.19696484646053061</v>
+        <v>0.1969648464605306</v>
       </c>
       <c r="L169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M169" s="2">
         <f>AVERAGE(S168:S174)</f>
-        <v>0.14348935568032101</v>
+        <v>0</v>
       </c>
       <c r="O169">
         <v>7</v>
       </c>
       <c r="P169" s="2">
-        <v>0.52421449423663014</v>
+        <v>0.5242144942366301</v>
       </c>
       <c r="R169">
         <v>7</v>
       </c>
       <c r="S169" s="2">
-        <v>0.16640475898893139</v>
+        <v>0.1664047589889314</v>
       </c>
       <c r="U169">
         <v>7</v>
       </c>
       <c r="V169" s="2">
-        <v>6.0119281038135831E-2</v>
+        <v>0.06011928103813583</v>
       </c>
       <c r="X169">
         <v>7</v>
       </c>
       <c r="Y169" s="2">
-        <v>0.16351989386729779</v>
+        <v>0.1635198938672978</v>
       </c>
       <c r="AA169">
         <v>7</v>
       </c>
       <c r="AB169" s="2">
-        <v>5.0718768305746918E-2</v>
+        <v>0.05071876830574692</v>
       </c>
       <c r="AD169">
         <v>7</v>
       </c>
       <c r="AE169" s="2">
-        <v>2.2583835779581372E-2</v>
+        <v>0.02258383577958137</v>
       </c>
       <c r="AG169">
         <v>7</v>
       </c>
       <c r="AH169" s="2">
-        <v>1.2438967783676501E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.0124389677836765</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34">
       <c r="A170">
         <v>731.265612035299</v>
       </c>
@@ -4844,7 +4760,7 @@
         <v>16453718</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E170">
         <v>-0.11</v>
@@ -4853,61 +4769,61 @@
         <v>9</v>
       </c>
       <c r="J170" s="1">
-        <v>0.19150814784964579</v>
+        <v>0.1915081478496458</v>
       </c>
       <c r="L170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M170" s="2">
         <f>AVERAGE(V168:V174)</f>
-        <v>4.3317508428697207E-2</v>
+        <v>0</v>
       </c>
       <c r="O170">
         <v>8</v>
       </c>
       <c r="P170" s="2">
-        <v>0.60251124201343931</v>
+        <v>0.6025112420134393</v>
       </c>
       <c r="R170">
         <v>8</v>
       </c>
       <c r="S170" s="2">
-        <v>0.16177561481873101</v>
+        <v>0.161775614818731</v>
       </c>
       <c r="U170">
         <v>8</v>
       </c>
       <c r="V170" s="2">
-        <v>4.4479989291174908E-2</v>
+        <v>0.04447998929117491</v>
       </c>
       <c r="X170">
         <v>8</v>
       </c>
       <c r="Y170" s="2">
-        <v>0.14211867833873529</v>
+        <v>0.1421186783387353</v>
       </c>
       <c r="AA170">
         <v>8</v>
       </c>
       <c r="AB170" s="2">
-        <v>3.0230530740185581E-2</v>
+        <v>0.03023053074018558</v>
       </c>
       <c r="AD170">
         <v>8</v>
       </c>
       <c r="AE170" s="2">
-        <v>1.3152252213858091E-2</v>
+        <v>0.01315225221385809</v>
       </c>
       <c r="AG170">
         <v>8</v>
       </c>
       <c r="AH170" s="2">
-        <v>5.7316925838757837E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.005731692583875784</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34">
       <c r="A171">
-        <v>733.09720959439005</v>
+        <v>733.0972095943901</v>
       </c>
       <c r="B171">
         <v>12</v>
@@ -4916,7 +4832,7 @@
         <v>1450699</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E171">
         <v>-0.43</v>
@@ -4928,58 +4844,58 @@
         <v>0.1761857678192239</v>
       </c>
       <c r="L171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M171" s="2">
         <f>AVERAGE(Y168:Y174)</f>
-        <v>0.14810334732101757</v>
+        <v>0</v>
       </c>
       <c r="O171">
         <v>9</v>
       </c>
       <c r="P171" s="2">
-        <v>0.63614386629818775</v>
+        <v>0.6361438662981878</v>
       </c>
       <c r="R171">
         <v>9</v>
       </c>
       <c r="S171" s="2">
-        <v>0.13740950745683261</v>
+        <v>0.1374095074568326</v>
       </c>
       <c r="U171">
         <v>9</v>
       </c>
       <c r="V171" s="2">
-        <v>4.1322473520031093E-2</v>
+        <v>0.04132247352003109</v>
       </c>
       <c r="X171">
         <v>9</v>
       </c>
       <c r="Y171" s="2">
-        <v>0.13739889048567999</v>
+        <v>0.13739889048568</v>
       </c>
       <c r="AA171">
         <v>9</v>
       </c>
       <c r="AB171" s="2">
-        <v>3.0878527237095721E-2</v>
+        <v>0.03087852723709572</v>
       </c>
       <c r="AD171">
         <v>9</v>
       </c>
       <c r="AE171" s="2">
-        <v>1.0462739877475549E-2</v>
+        <v>0.01046273987747555</v>
       </c>
       <c r="AG171">
         <v>9</v>
       </c>
       <c r="AH171" s="2">
-        <v>6.3839951246972178E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.006383995124697218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34">
       <c r="A172">
-        <v>774.99896692675145</v>
+        <v>774.9989669267515</v>
       </c>
       <c r="B172">
         <v>11</v>
@@ -4997,61 +4913,61 @@
         <v>11</v>
       </c>
       <c r="J172" s="1">
-        <v>0.18972699759169259</v>
+        <v>0.1897269975916926</v>
       </c>
       <c r="L172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M172" s="2">
         <f>AVERAGE(AB168:AB174)</f>
-        <v>3.4622226598388338E-2</v>
+        <v>0</v>
       </c>
       <c r="O172">
         <v>10</v>
       </c>
       <c r="P172" s="2">
-        <v>0.67001070235505622</v>
+        <v>0.6700107023550562</v>
       </c>
       <c r="R172">
         <v>10</v>
       </c>
       <c r="S172" s="2">
-        <v>0.12276168129088411</v>
+        <v>0.1227616812908841</v>
       </c>
       <c r="U172">
         <v>10</v>
       </c>
       <c r="V172" s="2">
-        <v>3.7109961117909873E-2</v>
+        <v>0.03710996111790987</v>
       </c>
       <c r="X172">
         <v>10</v>
       </c>
       <c r="Y172" s="2">
-        <v>0.13052188553127361</v>
+        <v>0.1305218855312736</v>
       </c>
       <c r="AA172">
         <v>10</v>
       </c>
       <c r="AB172" s="2">
-        <v>2.5734040624852801E-2</v>
+        <v>0.0257340406248528</v>
       </c>
       <c r="AD172">
         <v>10</v>
       </c>
       <c r="AE172" s="2">
-        <v>7.7936164969493339E-3</v>
+        <v>0.007793616496949334</v>
       </c>
       <c r="AG172">
         <v>10</v>
       </c>
       <c r="AH172" s="2">
-        <v>6.0681125830740739E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.006068112583074074</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34">
       <c r="A173">
-        <v>776.99801641630256</v>
+        <v>776.9980164163026</v>
       </c>
       <c r="B173">
         <v>11</v>
@@ -5060,7 +4976,7 @@
         <v>44285732</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <v>0.05</v>
@@ -5072,17 +4988,17 @@
         <v>0.1601729845836288</v>
       </c>
       <c r="L173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M173" s="2">
         <f>AVERAGE(AE168:AE174)</f>
-        <v>1.3309601629943487E-2</v>
+        <v>0</v>
       </c>
       <c r="O173">
         <v>11</v>
       </c>
       <c r="P173" s="2">
-        <v>0.66792596868874443</v>
+        <v>0.6679259686887444</v>
       </c>
       <c r="R173">
         <v>11</v>
@@ -5094,36 +5010,36 @@
         <v>11</v>
       </c>
       <c r="V173" s="2">
-        <v>2.75168825751127E-2</v>
+        <v>0.0275168825751127</v>
       </c>
       <c r="X173">
         <v>11</v>
       </c>
       <c r="Y173" s="2">
-        <v>0.13958042201111739</v>
+        <v>0.1395804220111174</v>
       </c>
       <c r="AA173">
         <v>11</v>
       </c>
       <c r="AB173" s="2">
-        <v>2.535733260925635E-2</v>
+        <v>0.02535733260925635</v>
       </c>
       <c r="AD173">
         <v>11</v>
       </c>
       <c r="AE173" s="2">
-        <v>8.7861501876964065E-3</v>
+        <v>0.008786150187696407</v>
       </c>
       <c r="AG173">
         <v>11</v>
       </c>
       <c r="AH173" s="2">
-        <v>8.0015463918111946E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0.008001546391811195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34">
       <c r="A174">
-        <v>778.45058986032245</v>
+        <v>778.4505898603225</v>
       </c>
       <c r="B174">
         <v>11</v>
@@ -5132,24 +5048,24 @@
         <v>9920935</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J174" s="1">
         <f>AVERAGE(J167:J173)</f>
-        <v>0.21002935795802283</v>
+        <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M174" s="2">
         <f>AVERAGE(AH168:AH174)</f>
-        <v>6.9970912043367103E-3</v>
+        <v>0</v>
       </c>
       <c r="O174">
         <v>12</v>
@@ -5167,7 +5083,7 @@
         <v>12</v>
       </c>
       <c r="V174" s="2">
-        <v>2.9003839293878311E-2</v>
+        <v>0.02900383929387831</v>
       </c>
       <c r="X174">
         <v>12</v>
@@ -5179,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="AB174" s="2">
-        <v>1.297795893395946E-2</v>
+        <v>0.01297795893395946</v>
       </c>
       <c r="AD174">
         <v>12</v>
@@ -5194,9 +5110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:34">
       <c r="A175">
-        <v>797.83562711730747</v>
+        <v>797.8356271173075</v>
       </c>
       <c r="B175">
         <v>11</v>
@@ -5205,13 +5121,13 @@
         <v>50324316</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:34">
       <c r="A176">
         <v>799.8346105565405</v>
       </c>
@@ -5222,15 +5138,15 @@
         <v>9142331</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E176">
         <v>0.36</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
-        <v>801.29049697788696</v>
+        <v>801.290496977887</v>
       </c>
       <c r="B177">
         <v>11</v>
@@ -5239,15 +5155,15 @@
         <v>3167758</v>
       </c>
       <c r="D177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E177">
         <v>4.99</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
-        <v>820.67170243230044</v>
+        <v>820.6717024323004</v>
       </c>
       <c r="B178">
         <v>11</v>
@@ -5256,15 +5172,15 @@
         <v>2884877</v>
       </c>
       <c r="D178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E178">
         <v>-0.73</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
-        <v>852.59899013822906</v>
+        <v>852.5989901382291</v>
       </c>
       <c r="B179">
         <v>10</v>
@@ -5279,9 +5195,9 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
-        <v>854.79801036924005</v>
+        <v>854.79801036924</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -5290,15 +5206,15 @@
         <v>73306664</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180">
-        <v>-0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
-        <v>856.39654895448484</v>
+        <v>856.3965489544848</v>
       </c>
       <c r="B181">
         <v>10</v>
@@ -5307,15 +5223,15 @@
         <v>22160070</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181">
         <v>0.76</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
-        <v>877.71999159748077</v>
+        <v>877.7199915974808</v>
       </c>
       <c r="B182">
         <v>10</v>
@@ -5324,15 +5240,15 @@
         <v>77940640</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E182">
         <v>-0.34</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
-        <v>879.91809657485362</v>
+        <v>879.9180965748536</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -5341,15 +5257,15 @@
         <v>15366983</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183">
         <v>-0.44</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
-        <v>881.51652863189452</v>
+        <v>881.5165286318945</v>
       </c>
       <c r="B184">
         <v>10</v>
@@ -5358,15 +5274,15 @@
         <v>4653928</v>
       </c>
       <c r="D184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E184">
         <v>0.74</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
-        <v>902.84038765823868</v>
+        <v>902.8403876582387</v>
       </c>
       <c r="B185">
         <v>10</v>
@@ -5375,15 +5291,15 @@
         <v>3623550</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
-        <v>947.44377084722908</v>
+        <v>947.4437708472291</v>
       </c>
       <c r="B186">
         <v>9</v>
@@ -5398,9 +5314,9 @@
         <v>-1.93</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
-        <v>949.88698007176299</v>
+        <v>949.886980071763</v>
       </c>
       <c r="B187">
         <v>9</v>
@@ -5409,15 +5325,15 @@
         <v>84798864</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
-        <v>951.66357981975148</v>
+        <v>951.6635798197515</v>
       </c>
       <c r="B188">
         <v>9</v>
@@ -5426,13 +5342,13 @@
         <v>25501138</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188">
         <v>0.7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>975.3566294705862</v>
       </c>
@@ -5443,15 +5359,15 @@
         <v>84792312</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
-        <v>977.79899455838256</v>
+        <v>977.7989945583826</v>
       </c>
       <c r="B190">
         <v>9</v>
@@ -5460,15 +5376,15 @@
         <v>19055916</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
-        <v>979.68628384385261</v>
+        <v>979.6862838438526</v>
       </c>
       <c r="B191">
         <v>9</v>
@@ -5477,13 +5393,13 @@
         <v>6456820</v>
       </c>
       <c r="D191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E191">
         <v>114.62</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>1003.266915407844</v>
       </c>
@@ -5494,15 +5410,15 @@
         <v>3939724</v>
       </c>
       <c r="D192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E192">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
-        <v>1066.0006867683701</v>
+        <v>1066.00068676837</v>
       </c>
       <c r="B193">
         <v>8</v>
@@ -5517,9 +5433,9 @@
         <v>-1.43</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
-        <v>1068.7497779154869</v>
+        <v>1068.749777915487</v>
       </c>
       <c r="B194">
         <v>8</v>
@@ -5528,13 +5444,13 @@
         <v>68935152</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>1070.748738230609</v>
       </c>
@@ -5545,15 +5461,15 @@
         <v>18953628</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E195">
         <v>1.91</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
-        <v>1097.4014321423169</v>
+        <v>1097.401432142317</v>
       </c>
       <c r="B196">
         <v>8</v>
@@ -5562,13 +5478,13 @@
         <v>60559020</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196">
         <v>-0.68</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>1100.150880782033</v>
       </c>
@@ -5579,13 +5495,13 @@
         <v>12881708</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197">
         <v>0.87</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>1102.150666578186</v>
       </c>
@@ -5596,13 +5512,13 @@
         <v>5604383</v>
       </c>
       <c r="D198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198">
         <v>3.63</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>1128.800422756223</v>
       </c>
@@ -5613,15 +5529,15 @@
         <v>2442365</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E199">
         <v>-1.53</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
-        <v>1218.4318049923029</v>
+        <v>1218.431804992303</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -5636,7 +5552,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>1221.572729176743</v>
       </c>
@@ -5647,13 +5563,13 @@
         <v>32703496</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201">
         <v>0.26</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>1223.854375301135</v>
       </c>
@@ -5664,15 +5580,15 @@
         <v>11815231</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
-        <v>1254.3178029679109</v>
+        <v>1254.317802967911</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -5681,13 +5597,13 @@
         <v>32136534</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E203">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>1257.459736980418</v>
       </c>
@@ -5698,15 +5614,15 @@
         <v>9967750</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
         <v>1.31</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
-        <v>1259.8862305684479</v>
+        <v>1259.886230568448</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -5715,15 +5631,15 @@
         <v>4438397</v>
       </c>
       <c r="D205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E205">
         <v>116.01</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
-        <v>1290.2054825323571</v>
+        <v>1290.205482532357</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -5732,13 +5648,13 @@
         <v>2444628</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E206">
         <v>1.54</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>1421.667603848671</v>
       </c>
@@ -5755,7 +5671,7 @@
         <v>-3.12</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>1425.332868345509</v>
       </c>
@@ -5766,13 +5682,13 @@
         <v>31540848</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E208">
         <v>-1.98</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>1427.999017844106</v>
       </c>
@@ -5783,13 +5699,13 @@
         <v>10567368</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E209">
         <v>0.7</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>1463.537385694596</v>
       </c>
@@ -5800,15 +5716,15 @@
         <v>29275322</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E210">
         <v>-0.87</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
-        <v>1467.1984230949081</v>
+        <v>1467.198423094908</v>
       </c>
       <c r="B211">
         <v>6</v>
@@ -5817,13 +5733,13 @@
         <v>11030143</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
         <v>-2.66</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>1469.863402148975</v>
       </c>
@@ -5834,15 +5750,15 @@
         <v>5043616</v>
       </c>
       <c r="D212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E212">
         <v>-0.84</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
-        <v>1505.4141199131111</v>
+        <v>1505.414119913111</v>
       </c>
       <c r="B213">
         <v>6</v>
@@ -5851,7 +5767,7 @@
         <v>1718679</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E213">
         <v>5.87</v>
